--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理刑事案件罪犯情况.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理刑事案件罪犯情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,400 +458,229 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179272</v>
+        <v>219785</v>
       </c>
       <c r="C2" t="n">
-        <v>41709</v>
+        <v>68193</v>
       </c>
       <c r="D2" t="n">
-        <v>639814</v>
+        <v>1006420</v>
       </c>
       <c r="E2" t="n">
-        <v>220981</v>
+        <v>287978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203582</v>
+        <v>215149</v>
       </c>
       <c r="C3" t="n">
-        <v>49883</v>
+        <v>67280</v>
       </c>
       <c r="D3" t="n">
-        <v>746328</v>
+        <v>1050747</v>
       </c>
       <c r="E3" t="n">
-        <v>253465</v>
+        <v>282429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167879</v>
+        <v>219208</v>
       </c>
       <c r="C4" t="n">
-        <v>50030</v>
+        <v>63782</v>
       </c>
       <c r="D4" t="n">
-        <v>701858</v>
+        <v>1173406</v>
       </c>
       <c r="E4" t="n">
-        <v>217909</v>
+        <v>282990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172845</v>
+        <v>209622</v>
       </c>
       <c r="C5" t="n">
-        <v>58870</v>
+        <v>55817</v>
       </c>
       <c r="D5" t="n">
-        <v>742261</v>
+        <v>1157784</v>
       </c>
       <c r="E5" t="n">
-        <v>231715</v>
+        <v>265439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178748</v>
+        <v>199161</v>
       </c>
       <c r="C6" t="n">
-        <v>70086</v>
+        <v>50415</v>
       </c>
       <c r="D6" t="n">
-        <v>764441</v>
+        <v>1183784</v>
       </c>
       <c r="E6" t="n">
-        <v>248834</v>
+        <v>249576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203109</v>
+        <v>192502</v>
       </c>
       <c r="C7" t="n">
-        <v>82692</v>
+        <v>43839</v>
       </c>
       <c r="D7" t="n">
-        <v>842545</v>
+        <v>1231656</v>
       </c>
       <c r="E7" t="n">
-        <v>285801</v>
+        <v>236341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219934</v>
+        <v>168914</v>
       </c>
       <c r="C8" t="n">
-        <v>83697</v>
+        <v>35743</v>
       </c>
       <c r="D8" t="n">
-        <v>889042</v>
+        <v>1219569</v>
       </c>
       <c r="E8" t="n">
-        <v>303631</v>
+        <v>204657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228792</v>
+        <v>150693</v>
       </c>
       <c r="C9" t="n">
-        <v>87506</v>
+        <v>32778</v>
       </c>
       <c r="D9" t="n">
-        <v>931745</v>
+        <v>1268985</v>
       </c>
       <c r="E9" t="n">
-        <v>316298</v>
+        <v>183471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233170</v>
+        <v>208910</v>
       </c>
       <c r="C10" t="n">
-        <v>88891</v>
+        <v>34365</v>
       </c>
       <c r="D10" t="n">
-        <v>1007304</v>
+        <v>1428772</v>
       </c>
       <c r="E10" t="n">
-        <v>322061</v>
+        <v>243275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224419</v>
+        <v>238822</v>
       </c>
       <c r="C11" t="n">
-        <v>77604</v>
+        <v>43038</v>
       </c>
       <c r="D11" t="n">
-        <v>996666</v>
+        <v>1659550</v>
       </c>
       <c r="E11" t="n">
-        <v>302023</v>
+        <v>281860</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219785</v>
+        <v>211306</v>
       </c>
       <c r="C12" t="n">
-        <v>68193</v>
+        <v>33768</v>
       </c>
       <c r="D12" t="n">
-        <v>1006420</v>
+        <v>1526811</v>
       </c>
       <c r="E12" t="n">
-        <v>287978</v>
+        <v>245074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>215149</v>
+        <v>248949</v>
       </c>
       <c r="C13" t="n">
-        <v>67280</v>
+        <v>34616</v>
       </c>
       <c r="D13" t="n">
-        <v>1050747</v>
+        <v>1714942</v>
       </c>
       <c r="E13" t="n">
-        <v>282429</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>219208</v>
-      </c>
-      <c r="C14" t="n">
-        <v>63782</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1173406</v>
-      </c>
-      <c r="E14" t="n">
-        <v>282990</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>209622</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55817</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1157784</v>
-      </c>
-      <c r="E15" t="n">
-        <v>265439</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>199161</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50415</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1183784</v>
-      </c>
-      <c r="E16" t="n">
-        <v>249576</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>192502</v>
-      </c>
-      <c r="C17" t="n">
-        <v>43839</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1231656</v>
-      </c>
-      <c r="E17" t="n">
-        <v>236341</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>168914</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35743</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1219569</v>
-      </c>
-      <c r="E18" t="n">
-        <v>204657</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>150693</v>
-      </c>
-      <c r="C19" t="n">
-        <v>32778</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1268985</v>
-      </c>
-      <c r="E19" t="n">
-        <v>183471</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>208910</v>
-      </c>
-      <c r="C20" t="n">
-        <v>34365</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1428772</v>
-      </c>
-      <c r="E20" t="n">
-        <v>243275</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>238822</v>
-      </c>
-      <c r="C21" t="n">
-        <v>43038</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1659550</v>
-      </c>
-      <c r="E21" t="n">
-        <v>281860</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>211306</v>
-      </c>
-      <c r="C22" t="n">
-        <v>33768</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1526811</v>
-      </c>
-      <c r="E22" t="n">
-        <v>245074</v>
+        <v>283565</v>
       </c>
     </row>
   </sheetData>
